--- a/data/result/Sector.xlsx
+++ b/data/result/Sector.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jumlah</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Prioritas</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Eigen Value</t>
         </is>
@@ -472,21 +477,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -497,21 +505,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,47 +533,81 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
